--- a/Documentation/Tabelas-Relatório.xlsx
+++ b/Documentation/Tabelas-Relatório.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Projeto\InteligentDestiller\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF3B668-3B46-4EF2-930E-57BAA1866193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B09ECD-7B6E-4DAD-9794-0EFB328CBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0869681-22DC-4313-AFD7-6FC19661AB2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0869681-22DC-4313-AFD7-6FC19661AB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIOs" sheetId="2" r:id="rId1"/>
+    <sheet name="IOs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>GPIO</t>
   </si>
@@ -65,9 +66,6 @@
     <t>debug output at boot</t>
   </si>
   <si>
-    <t>connected to on-board LED, must be left floating or LOW to enter flashing mode</t>
-  </si>
-  <si>
     <t>RX pin</t>
   </si>
   <si>
@@ -102,13 +100,103 @@
   </si>
   <si>
     <t>Coluna4</t>
+  </si>
+  <si>
+    <t>Simbolo</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>PIN_SMAX</t>
+  </si>
+  <si>
+    <t>PIN_SALARM</t>
+  </si>
+  <si>
+    <t>PIN_SW_MAN</t>
+  </si>
+  <si>
+    <t>PIN_SMIN</t>
+  </si>
+  <si>
+    <t>PIN_SW_AUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor de nível água </t>
+  </si>
+  <si>
+    <t>sensor de nível de alarme</t>
+  </si>
+  <si>
+    <t>Interruptor de modo manual</t>
+  </si>
+  <si>
+    <t>sensor de nível água mínimo</t>
+  </si>
+  <si>
+    <t>botão de modo auto</t>
+  </si>
+  <si>
+    <t>PIN_IND_MAX</t>
+  </si>
+  <si>
+    <t>PIN_IND_MIN</t>
+  </si>
+  <si>
+    <t>PIN_IND_AUTO</t>
+  </si>
+  <si>
+    <t>PIN_IND_ALARM</t>
+  </si>
+  <si>
+    <t>PIN_VALV_WATER_IN</t>
+  </si>
+  <si>
+    <t>PIN_VALV_WATER_OUT</t>
+  </si>
+  <si>
+    <t>PIN_BMB</t>
+  </si>
+  <si>
+    <t>PIN_RAQ</t>
+  </si>
+  <si>
+    <t>PIN_IND_MAN</t>
+  </si>
+  <si>
+    <t>indicador luminoso de nível água máximo</t>
+  </si>
+  <si>
+    <t>indicador luminoso de nível água mínimo</t>
+  </si>
+  <si>
+    <t>indicador luminoso do modo auto</t>
+  </si>
+  <si>
+    <t>indicador luminoso de nível de água de alarme</t>
+  </si>
+  <si>
+    <t>válvula de entrada de água fria</t>
+  </si>
+  <si>
+    <t>válvula de descarga de vapor</t>
+  </si>
+  <si>
+    <t>bomba de água</t>
+  </si>
+  <si>
+    <t>resistência de aquecimento</t>
+  </si>
+  <si>
+    <t>indicador luminoso do modo manual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +204,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +247,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -140,10 +262,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,11 +277,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Cor2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -190,14 +415,153 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199161</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50A0F6F-3618-9DE7-8AA4-3248B7FD0696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="561975"/>
+          <a:ext cx="6914286" cy="6333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3" descr="Table&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5458C639-5C09-9679-46B8-4A39F52F5050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10201275" y="4038600"/>
+          <a:ext cx="5886450" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ECD0BA2F-94F2-46D2-9015-5461021ACC8E}" name="Tabela8" displayName="Tabela8" ref="D4:G37" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ECD0BA2F-94F2-46D2-9015-5461021ACC8E}" name="Tabela8" displayName="Tabela8" ref="D4:G37" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="D4:G37" xr:uid="{ECD0BA2F-94F2-46D2-9015-5461021ACC8E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F9D6B5A6-9D93-4683-983A-6B7323A4EF9B}" name="Coluna1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{6B50349F-3B78-4684-A39F-097B4F965EE6}" name="Coluna2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5DD2A664-7721-4F64-B4C7-85AC55B3CC14}" name="Coluna3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{323A603C-B265-4EB8-A0F1-2E19A65556E0}" name="Coluna4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F9D6B5A6-9D93-4683-983A-6B7323A4EF9B}" name="Coluna1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6B50349F-3B78-4684-A39F-097B4F965EE6}" name="Coluna2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5DD2A664-7721-4F64-B4C7-85AC55B3CC14}" name="Coluna3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{323A603C-B265-4EB8-A0F1-2E19A65556E0}" name="Coluna4" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BC36C3F-8A65-4D95-AD15-AD855CB30DDA}" name="Tabela2" displayName="Tabela2" ref="B3:D9" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B3:D9" xr:uid="{7BC36C3F-8A65-4D95-AD15-AD855CB30DDA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6D1BEF4B-9E1F-46FA-869D-3088DAA2C29D}" name="Coluna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{EEFE7930-FE89-4DCD-B59B-85A991DEEC42}" name="Coluna2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2BB73476-8121-416A-8B80-FE376BBBE024}" name="Coluna3" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BC29A4-D7F7-4517-968B-DF4FC68E33D5}" name="Tabela3" displayName="Tabela3" ref="F3:H13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="F3:H13" xr:uid="{64BC29A4-D7F7-4517-968B-DF4FC68E33D5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9050D367-EC89-467A-8BF1-940F0441C645}" name="Coluna1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1A92C1E0-50FB-42C9-99E3-761B08DBBCC6}" name="Coluna2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3CC84C42-42CA-4396-9CDE-29161587A44F}" name="Coluna3" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5D67CB-C2A6-4E80-885A-CB555FFEA0C2}">
   <dimension ref="D4:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,16 +898,16 @@
   <sheetData>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
@@ -592,14 +956,14 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
@@ -610,10 +974,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
@@ -639,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
@@ -647,13 +1011,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
@@ -661,13 +1025,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
@@ -675,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
@@ -689,13 +1053,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.25">
@@ -703,13 +1067,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
@@ -717,13 +1081,13 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
@@ -737,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
@@ -763,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
@@ -777,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
@@ -933,7 +1297,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
@@ -945,7 +1309,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
@@ -957,7 +1321,7 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
@@ -969,13 +1333,229 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C614C-2C76-4A34-AFBD-3E49DCB1E9BA}">
+  <dimension ref="B3:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="10.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="6">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="6">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="6">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="6">
+        <v>33</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentation/Tabelas-Relatório.xlsx
+++ b/Documentation/Tabelas-Relatório.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Projeto\InteligentDestiller\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B09ECD-7B6E-4DAD-9794-0EFB328CBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9989125-D820-4978-B433-B593F7439E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0869681-22DC-4313-AFD7-6FC19661AB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E0869681-22DC-4313-AFD7-6FC19661AB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIOs" sheetId="2" r:id="rId1"/>
     <sheet name="IOs" sheetId="3" r:id="rId2"/>
+    <sheet name="Esq Eletrico" sheetId="5" r:id="rId3"/>
+    <sheet name="placa ensaio" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="72">
   <si>
     <t>GPIO</t>
   </si>
@@ -105,9 +107,6 @@
     <t>Simbolo</t>
   </si>
   <si>
-    <t>Uso</t>
-  </si>
-  <si>
     <t>PIN_SMAX</t>
   </si>
   <si>
@@ -190,13 +189,79 @@
   </si>
   <si>
     <t>indicador luminoso do modo manual</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Ref. Manufacturer</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Ref. Supplier</t>
+  </si>
+  <si>
+    <t>Mouser.com</t>
+  </si>
+  <si>
+    <t>Esp32-Wrover-E</t>
+  </si>
+  <si>
+    <t>EspressIf</t>
+  </si>
+  <si>
+    <t>ESP32_DevKitc_V4</t>
+  </si>
+  <si>
+    <t>356-ESP32WRVE22864PC</t>
+  </si>
+  <si>
+    <t>Placa de ensaio</t>
+  </si>
+  <si>
+    <t>Push-button</t>
+  </si>
+  <si>
+    <t>Coluna5</t>
+  </si>
+  <si>
+    <t>Coluna6</t>
+  </si>
+  <si>
+    <t>Fios Macho-Femea</t>
+  </si>
+  <si>
+    <t>220 ohm Resistor</t>
+  </si>
+  <si>
+    <t>Interruptor</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>LED 3,5mm</t>
+  </si>
+  <si>
+    <t>Diodo 1N4001</t>
+  </si>
+  <si>
+    <t>LED 2,5mm cores várias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +298,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +324,14 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39988402966399123"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -261,12 +339,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,14 +399,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cor2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF969696"/>
+          <bgColor theme="8" tint="0.39988402966399123"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -380,6 +543,9 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -531,37 +697,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ECD0BA2F-94F2-46D2-9015-5461021ACC8E}" name="Tabela8" displayName="Tabela8" ref="D4:G37" totalsRowShown="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ECD0BA2F-94F2-46D2-9015-5461021ACC8E}" name="Tabela8" displayName="Tabela8" ref="D4:G37" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="D4:G37" xr:uid="{ECD0BA2F-94F2-46D2-9015-5461021ACC8E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F9D6B5A6-9D93-4683-983A-6B7323A4EF9B}" name="Coluna1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6B50349F-3B78-4684-A39F-097B4F965EE6}" name="Coluna2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{5DD2A664-7721-4F64-B4C7-85AC55B3CC14}" name="Coluna3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{323A603C-B265-4EB8-A0F1-2E19A65556E0}" name="Coluna4" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{F9D6B5A6-9D93-4683-983A-6B7323A4EF9B}" name="Coluna1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6B50349F-3B78-4684-A39F-097B4F965EE6}" name="Coluna2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{5DD2A664-7721-4F64-B4C7-85AC55B3CC14}" name="Coluna3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{323A603C-B265-4EB8-A0F1-2E19A65556E0}" name="Coluna4" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BC36C3F-8A65-4D95-AD15-AD855CB30DDA}" name="Tabela2" displayName="Tabela2" ref="B3:D9" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BC36C3F-8A65-4D95-AD15-AD855CB30DDA}" name="Tabela2" displayName="Tabela2" ref="B3:D9" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="B3:D9" xr:uid="{7BC36C3F-8A65-4D95-AD15-AD855CB30DDA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D1BEF4B-9E1F-46FA-869D-3088DAA2C29D}" name="Coluna1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{EEFE7930-FE89-4DCD-B59B-85A991DEEC42}" name="Coluna2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2BB73476-8121-416A-8B80-FE376BBBE024}" name="Coluna3" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6D1BEF4B-9E1F-46FA-869D-3088DAA2C29D}" name="Coluna1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{EEFE7930-FE89-4DCD-B59B-85A991DEEC42}" name="Coluna2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2BB73476-8121-416A-8B80-FE376BBBE024}" name="Coluna3" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BC29A4-D7F7-4517-968B-DF4FC68E33D5}" name="Tabela3" displayName="Tabela3" ref="F3:H13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BC29A4-D7F7-4517-968B-DF4FC68E33D5}" name="Tabela3" displayName="Tabela3" ref="F3:H13" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="F3:H13" xr:uid="{64BC29A4-D7F7-4517-968B-DF4FC68E33D5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9050D367-EC89-467A-8BF1-940F0441C645}" name="Coluna1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1A92C1E0-50FB-42C9-99E3-761B08DBBCC6}" name="Coluna2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3CC84C42-42CA-4396-9CDE-29161587A44F}" name="Coluna3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9050D367-EC89-467A-8BF1-940F0441C645}" name="Coluna1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1A92C1E0-50FB-42C9-99E3-761B08DBBCC6}" name="Coluna2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3CC84C42-42CA-4396-9CDE-29161587A44F}" name="Coluna3" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE98A93E-B0B6-46A4-BC9D-0A62D0910954}" name="Tabela1" displayName="Tabela1" ref="C5:H15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="C5:H15" xr:uid="{FE98A93E-B0B6-46A4-BC9D-0A62D0910954}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8C90B575-2166-4A85-88E8-DD7E56487C4B}" name="Coluna1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DC827CDD-A31B-48D2-BFC6-692A42581CF6}" name="Coluna2"/>
+    <tableColumn id="3" xr3:uid="{A2FC7C14-8709-4ADC-BBCF-07E31D2086C4}" name="Coluna3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{50589DC5-F304-4BF8-9160-2A72BFF32F28}" name="Coluna4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{13062109-896E-48F1-BCA6-EEE7D36AD81A}" name="Coluna5"/>
+    <tableColumn id="6" xr3:uid="{FEDA54B6-3566-41F9-A536-45D5CDD371E9}" name="Coluna6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -887,16 +1068,16 @@
   <dimension ref="D4:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G25" sqref="G25:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>17</v>
       </c>
@@ -910,7 +1091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -938,7 +1119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2">
         <v>1</v>
       </c>
@@ -952,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>2</v>
       </c>
@@ -966,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <v>3</v>
       </c>
@@ -980,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D10" s="2">
         <v>4</v>
       </c>
@@ -992,7 +1173,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
         <v>5</v>
       </c>
@@ -1006,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>6</v>
       </c>
@@ -1020,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
         <v>7</v>
       </c>
@@ -1034,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D14" s="2">
         <v>8</v>
       </c>
@@ -1048,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <v>9</v>
       </c>
@@ -1062,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D16" s="2">
         <v>10</v>
       </c>
@@ -1076,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <v>11</v>
       </c>
@@ -1090,7 +1271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <v>12</v>
       </c>
@@ -1104,7 +1285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" s="2">
         <v>13</v>
       </c>
@@ -1116,7 +1297,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" s="2">
         <v>14</v>
       </c>
@@ -1130,7 +1311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" s="2">
         <v>15</v>
       </c>
@@ -1144,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="2">
         <v>16</v>
       </c>
@@ -1156,7 +1337,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="2">
         <v>17</v>
       </c>
@@ -1168,7 +1349,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="2">
         <v>18</v>
       </c>
@@ -1180,7 +1361,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="2">
         <v>19</v>
       </c>
@@ -1192,7 +1373,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="2">
         <v>21</v>
       </c>
@@ -1204,7 +1385,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="2">
         <v>22</v>
       </c>
@@ -1216,7 +1397,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="2">
         <v>23</v>
       </c>
@@ -1228,7 +1409,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="2">
         <v>25</v>
       </c>
@@ -1240,7 +1421,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="2">
         <v>26</v>
       </c>
@@ -1252,7 +1433,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="2">
         <v>27</v>
       </c>
@@ -1264,7 +1445,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D32" s="2">
         <v>32</v>
       </c>
@@ -1276,7 +1457,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D33" s="2">
         <v>33</v>
       </c>
@@ -1288,7 +1469,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D34" s="2">
         <v>34</v>
       </c>
@@ -1300,7 +1481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" s="2">
         <v>35</v>
       </c>
@@ -1312,7 +1493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D36" s="2">
         <v>36</v>
       </c>
@@ -1324,7 +1505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D37" s="2">
         <v>39</v>
       </c>
@@ -1349,24 +1530,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C614C-2C76-4A34-AFBD-3E49DCB1E9BA}">
   <dimension ref="B3:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="10.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="10.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="4"/>
+    <col min="6" max="6" width="10.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1386,7 +1567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>0</v>
@@ -1403,151 +1584,151 @@
         <v>21</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6">
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6">
         <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6">
         <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F10" s="6">
         <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F11" s="6">
         <v>22</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F12" s="6">
         <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F13" s="6">
         <v>33</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1558,4 +1739,225 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49D0312-426B-497E-8E4F-0E791F857F64}">
+  <dimension ref="C5:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="22" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="16383" max="16384" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="5"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A266C-2EFB-4DB9-BBE4-3F0A43108619}">
+  <dimension ref="C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Tabelas-Relatório.xlsx
+++ b/Documentation/Tabelas-Relatório.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Projeto\InteligentDestiller\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9989125-D820-4978-B433-B593F7439E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAC5AEF-266A-4F65-976E-04657B5A7B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E0869681-22DC-4313-AFD7-6FC19661AB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E0869681-22DC-4313-AFD7-6FC19661AB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIOs" sheetId="2" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Coluna4</t>
   </si>
   <si>
-    <t>Simbolo</t>
-  </si>
-  <si>
     <t>PIN_SMAX</t>
   </si>
   <si>
@@ -122,21 +119,9 @@
     <t>PIN_SW_AUTO</t>
   </si>
   <si>
-    <t xml:space="preserve">sensor de nível água </t>
-  </si>
-  <si>
-    <t>sensor de nível de alarme</t>
-  </si>
-  <si>
     <t>Interruptor de modo manual</t>
   </si>
   <si>
-    <t>sensor de nível água mínimo</t>
-  </si>
-  <si>
-    <t>botão de modo auto</t>
-  </si>
-  <si>
     <t>PIN_IND_MAX</t>
   </si>
   <si>
@@ -164,33 +149,6 @@
     <t>PIN_IND_MAN</t>
   </si>
   <si>
-    <t>indicador luminoso de nível água máximo</t>
-  </si>
-  <si>
-    <t>indicador luminoso de nível água mínimo</t>
-  </si>
-  <si>
-    <t>indicador luminoso do modo auto</t>
-  </si>
-  <si>
-    <t>indicador luminoso de nível de água de alarme</t>
-  </si>
-  <si>
-    <t>válvula de entrada de água fria</t>
-  </si>
-  <si>
-    <t>válvula de descarga de vapor</t>
-  </si>
-  <si>
-    <t>bomba de água</t>
-  </si>
-  <si>
-    <t>resistência de aquecimento</t>
-  </si>
-  <si>
-    <t>indicador luminoso do modo manual</t>
-  </si>
-  <si>
     <t>Componente</t>
   </si>
   <si>
@@ -255,6 +213,48 @@
   </si>
   <si>
     <t>LED 2,5mm cores várias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Símbolo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor de nível água </t>
+  </si>
+  <si>
+    <t>Sensor de nível de alarme</t>
+  </si>
+  <si>
+    <t>Sensor de nível água mínimo</t>
+  </si>
+  <si>
+    <t>Botão de modo auto</t>
+  </si>
+  <si>
+    <t>Indicador luminoso de nível água máximo</t>
+  </si>
+  <si>
+    <t>Indicador luminoso de nível água mínimo</t>
+  </si>
+  <si>
+    <t>Indicador luminoso do modo auto</t>
+  </si>
+  <si>
+    <t>Indicador luminoso de nível de água de alarme</t>
+  </si>
+  <si>
+    <t>Válvula de entrada de água fria</t>
+  </si>
+  <si>
+    <t>Válvula de descarga de vapor</t>
+  </si>
+  <si>
+    <t>Bomba de água</t>
+  </si>
+  <si>
+    <t>Resistência de aquecimento</t>
+  </si>
+  <si>
+    <t>Indicador luminoso do modo manual</t>
   </si>
 </sst>
 </file>
@@ -424,6 +424,29 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF969696"/>
@@ -440,29 +463,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE98A93E-B0B6-46A4-BC9D-0A62D0910954}" name="Tabela1" displayName="Tabela1" ref="C5:H15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE98A93E-B0B6-46A4-BC9D-0A62D0910954}" name="Tabela1" displayName="Tabela1" ref="C5:H15" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="C5:H15" xr:uid="{FE98A93E-B0B6-46A4-BC9D-0A62D0910954}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8C90B575-2166-4A85-88E8-DD7E56487C4B}" name="Coluna1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8C90B575-2166-4A85-88E8-DD7E56487C4B}" name="Coluna1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{DC827CDD-A31B-48D2-BFC6-692A42581CF6}" name="Coluna2"/>
-    <tableColumn id="3" xr3:uid="{A2FC7C14-8709-4ADC-BBCF-07E31D2086C4}" name="Coluna3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{50589DC5-F304-4BF8-9160-2A72BFF32F28}" name="Coluna4" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A2FC7C14-8709-4ADC-BBCF-07E31D2086C4}" name="Coluna3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{50589DC5-F304-4BF8-9160-2A72BFF32F28}" name="Coluna4" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{13062109-896E-48F1-BCA6-EEE7D36AD81A}" name="Coluna5"/>
     <tableColumn id="6" xr3:uid="{FEDA54B6-3566-41F9-A536-45D5CDD371E9}" name="Coluna6"/>
   </tableColumns>
@@ -1530,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C614C-2C76-4A34-AFBD-3E49DCB1E9BA}">
   <dimension ref="B3:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:H13"/>
     </sheetView>
   </sheetViews>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -1592,19 +1592,19 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1612,19 +1612,19 @@
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1632,19 +1632,19 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6">
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1652,19 +1652,19 @@
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F8" s="6">
         <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1672,19 +1672,19 @@
         <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6">
         <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1692,10 +1692,10 @@
         <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1703,10 +1703,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1714,10 +1714,10 @@
         <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1725,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49D0312-426B-497E-8E4F-0E791F857F64}">
   <dimension ref="C5:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -1774,30 +1774,30 @@
         <v>20</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="15" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E7" s="11"/>
       <c r="H7" s="10"/>
@@ -1815,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -1824,19 +1824,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -1853,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -1862,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E12" s="12"/>
       <c r="H12" s="12"/>
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -1954,7 +1954,7 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Tabelas-Relatório.xlsx
+++ b/Documentation/Tabelas-Relatório.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Projeto\InteligentDestiller\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAC5AEF-266A-4F65-976E-04657B5A7B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A55BEB-B30C-43A3-A12E-9F5F0AD2505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E0869681-22DC-4313-AFD7-6FC19661AB2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0869681-22DC-4313-AFD7-6FC19661AB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIOs" sheetId="2" r:id="rId1"/>
     <sheet name="IOs" sheetId="3" r:id="rId2"/>
-    <sheet name="Esq Eletrico" sheetId="5" r:id="rId3"/>
-    <sheet name="placa ensaio" sheetId="4" r:id="rId4"/>
+    <sheet name="Placa Ensaio" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
   <si>
     <t>GPIO</t>
   </si>
@@ -147,9 +146,6 @@
   </si>
   <si>
     <t>PIN_IND_MAN</t>
-  </si>
-  <si>
-    <t>Componente</t>
   </si>
   <si>
     <t>Descrição</t>
@@ -623,72 +619,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3" descr="Table&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5458C639-5C09-9679-46B8-4A39F52F5050}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10201275" y="4038600"/>
-          <a:ext cx="5886450" cy="1438275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1067,17 +997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5D67CB-C2A6-4E80-885A-CB555FFEA0C2}">
   <dimension ref="D4:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="71.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1119,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <v>1</v>
       </c>
@@ -1133,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <v>2</v>
       </c>
@@ -1147,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <v>3</v>
       </c>
@@ -1161,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>4</v>
       </c>
@@ -1173,7 +1103,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <v>5</v>
       </c>
@@ -1187,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <v>6</v>
       </c>
@@ -1201,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <v>7</v>
       </c>
@@ -1215,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>8</v>
       </c>
@@ -1229,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <v>9</v>
       </c>
@@ -1243,7 +1173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <v>10</v>
       </c>
@@ -1257,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <v>11</v>
       </c>
@@ -1271,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
         <v>12</v>
       </c>
@@ -1285,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
         <v>13</v>
       </c>
@@ -1297,7 +1227,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <v>14</v>
       </c>
@@ -1311,7 +1241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <v>15</v>
       </c>
@@ -1325,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <v>16</v>
       </c>
@@ -1337,7 +1267,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
         <v>17</v>
       </c>
@@ -1349,7 +1279,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
         <v>18</v>
       </c>
@@ -1361,7 +1291,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <v>19</v>
       </c>
@@ -1373,7 +1303,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <v>21</v>
       </c>
@@ -1385,7 +1315,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <v>22</v>
       </c>
@@ -1397,7 +1327,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <v>23</v>
       </c>
@@ -1409,7 +1339,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <v>25</v>
       </c>
@@ -1421,7 +1351,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <v>26</v>
       </c>
@@ -1433,7 +1363,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <v>27</v>
       </c>
@@ -1445,7 +1375,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <v>32</v>
       </c>
@@ -1457,7 +1387,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <v>33</v>
       </c>
@@ -1469,7 +1399,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <v>34</v>
       </c>
@@ -1481,7 +1411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
         <v>35</v>
       </c>
@@ -1493,7 +1423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <v>36</v>
       </c>
@@ -1505,7 +1435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <v>39</v>
       </c>
@@ -1531,23 +1461,23 @@
   <dimension ref="B3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H13"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="10.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="4"/>
-    <col min="6" max="6" width="10.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="10.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1567,27 +1497,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>14</v>
       </c>
@@ -1595,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
@@ -1604,10 +1534,10 @@
         <v>27</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>25</v>
       </c>
@@ -1615,7 +1545,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
@@ -1624,10 +1554,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>26</v>
       </c>
@@ -1644,10 +1574,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>27</v>
       </c>
@@ -1655,7 +1585,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6">
         <v>18</v>
@@ -1664,10 +1594,10 @@
         <v>30</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>32</v>
       </c>
@@ -1675,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6">
         <v>19</v>
@@ -1684,10 +1614,10 @@
         <v>31</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F10" s="6">
         <v>21</v>
       </c>
@@ -1695,10 +1625,10 @@
         <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F11" s="6">
         <v>22</v>
       </c>
@@ -1706,10 +1636,10 @@
         <v>33</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F12" s="6">
         <v>23</v>
       </c>
@@ -1717,10 +1647,10 @@
         <v>34</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F13" s="6">
         <v>33</v>
       </c>
@@ -1728,15 +1658,14 @@
         <v>35</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1746,21 +1675,21 @@
   <dimension ref="C5:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="22" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="16383" max="16384" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="16383" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
@@ -1774,161 +1703,161 @@
         <v>20</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="11"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H27" s="10"/>
     </row>
   </sheetData>
@@ -1937,27 +1866,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A266C-2EFB-4DB9-BBE4-3F0A43108619}">
-  <dimension ref="C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>